--- a/data/trans_camb/P16A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.737377157444475</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.9197530013705127</v>
+        <v>-0.919753001370513</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6281059363852958</v>
+        <v>-0.60561055019809</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.277723413709085</v>
+        <v>-1.236499819044435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.911468833385455</v>
+        <v>-0.9335476562559391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.450435596587001</v>
+        <v>-4.446589520158996</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.453523704297842</v>
+        <v>-3.482557621550729</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.370730676155367</v>
+        <v>-4.228506112238442</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.076952218547516</v>
+        <v>-2.167294832928325</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.026570128453484</v>
+        <v>-2.075801716185337</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.204588304173344</v>
+        <v>-2.278537651956759</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.571260551260069</v>
+        <v>1.58906243958423</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2998439571019825</v>
+        <v>0.3082142871111255</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.214960017227684</v>
+        <v>1.238558204185621</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1114435471929536</v>
+        <v>0.2591912062858914</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.533395523233718</v>
+        <v>1.230474765741122</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.930415650186566</v>
+        <v>1.842084794234449</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3879832086385862</v>
+        <v>0.2891829426895867</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5801787754143173</v>
+        <v>0.478277440981468</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8241004690924546</v>
+        <v>0.8122643972565433</v>
       </c>
     </row>
     <row r="7">
@@ -783,22 +783,22 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.7729786451376698</v>
+        <v>-0.7939203372888826</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6790914164717956</v>
+        <v>-0.6639246367880971</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8535204286086316</v>
+        <v>-0.8560295616351845</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7005344073840549</v>
+        <v>-0.7052370447128971</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6827100811498862</v>
+        <v>-0.6908016518855289</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8082678585244157</v>
+        <v>-0.831964698529142</v>
       </c>
     </row>
     <row r="9">
@@ -812,22 +812,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.1506382720264447</v>
+        <v>0.2064224194086822</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6123443769645726</v>
+        <v>0.4802797807712171</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7303289016346638</v>
+        <v>0.8401306357858342</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2723272977568233</v>
+        <v>0.2469679502570958</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4457159643815083</v>
+        <v>0.341789315479899</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5101261911958744</v>
+        <v>0.6502898913718752</v>
       </c>
     </row>
     <row r="10">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3699117910407246</v>
+        <v>-0.3402771876890094</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5913917600993377</v>
+        <v>-0.7172574366256882</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6576965863813885</v>
+        <v>-0.6565379715738718</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.497511133652276</v>
+        <v>-1.787727098363114</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.245721919201741</v>
+        <v>-4.251332830880346</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.910213658066344</v>
+        <v>-3.819566658516761</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5939346442632361</v>
+        <v>-0.5632184008857044</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.731037189374787</v>
+        <v>-2.019049699367166</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.571404349626378</v>
+        <v>-1.566463580902843</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.069374519238777</v>
+        <v>2.123535797850699</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.383992904077275</v>
+        <v>1.439772248799871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.572741658324439</v>
+        <v>2.617731957297648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.436936103201432</v>
+        <v>3.454045147839159</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09461135021203963</v>
+        <v>0.2958407022874355</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6301443645872348</v>
+        <v>0.8490626506704709</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.091429956178961</v>
+        <v>2.145033910569524</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4552178884916568</v>
+        <v>0.4097908771864971</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.077623516724319</v>
+        <v>1.269648940187046</v>
       </c>
     </row>
     <row r="13">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4704408666441409</v>
+        <v>-0.5091312686966347</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6419794114505928</v>
+        <v>-0.7203246892384165</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2717921238595357</v>
+        <v>-0.3082207089777193</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7028761322428054</v>
+        <v>-0.6925748353971464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6843596149126799</v>
+        <v>-0.6733965486413478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2021339339877163</v>
+        <v>-0.2001193554782117</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5565891218790349</v>
+        <v>-0.6124391003254507</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5347975327406319</v>
+        <v>-0.5275464127140549</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.821761829315623</v>
+        <v>5.676037444089831</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.13082355606068</v>
+        <v>4.041503556666901</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6.98718327680464</v>
+        <v>6.830662392117859</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.094883939293013</v>
+        <v>1.022989661502967</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06127999489396159</v>
+        <v>0.1619415420011358</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2018139645628002</v>
+        <v>0.2616847223979676</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.100259902822935</v>
+        <v>1.147501190672261</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.262798437736824</v>
+        <v>0.23886061278583</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5346714284114573</v>
+        <v>0.6724776922353305</v>
       </c>
     </row>
     <row r="16">
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.913191741255632</v>
+        <v>-3.016194571088787</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.017281518945777</v>
+        <v>-3.210686402942132</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.606855132433444</v>
+        <v>-2.551989704164907</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5111489672386434</v>
+        <v>0.4656002154855966</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8932647299838392</v>
+        <v>-1.130457504906885</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.085308202119439</v>
+        <v>-2.053432724939843</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.7539179359980257</v>
+        <v>-0.7145097546905625</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.432686588320053</v>
+        <v>-1.60251559406264</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.031592500752071</v>
+        <v>-2.057201038504346</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1451678079011984</v>
+        <v>-0.3166334348363324</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.4086215497840239</v>
+        <v>-0.3888108121701218</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3357609617837005</v>
+        <v>0.4672022053592409</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.861687766199995</v>
+        <v>4.851956193834397</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.164822600353572</v>
+        <v>2.992606791322988</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.289272396483963</v>
+        <v>1.156466790024596</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.814316540992847</v>
+        <v>1.896377842319848</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9437424873748127</v>
+        <v>0.7576341185994372</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2591709800214045</v>
+        <v>0.206768822465603</v>
       </c>
     </row>
     <row r="19">
@@ -1196,31 +1196,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9105760907391937</v>
+        <v>-0.9136012443077356</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9346255808998224</v>
+        <v>-0.9405667705075985</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8674070226957612</v>
+        <v>-0.8471413488127947</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.09376904056904886</v>
+        <v>0.08909239548569339</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2210322799082271</v>
+        <v>-0.2936988728121324</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5090963322942009</v>
+        <v>-0.5043887167960617</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2307412391095654</v>
+        <v>-0.2284889917853347</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4229840505386069</v>
+        <v>-0.4690731680212158</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5654920585721529</v>
+        <v>-0.577443408094379</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1231,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.07443798410833974</v>
+        <v>-0.01028219548445544</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1499870415595879</v>
+        <v>-0.07973996445119023</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4061048136955995</v>
+        <v>0.5184371617887448</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.28649811003574</v>
+        <v>2.018203572603497</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.509292698189666</v>
+        <v>1.327948545923745</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5798853824962398</v>
+        <v>0.5148672676778037</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9036484589561317</v>
+        <v>0.8458527240697389</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4947858480018408</v>
+        <v>0.3865606794426156</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1694920652790242</v>
+        <v>0.1082965717512885</v>
       </c>
     </row>
     <row r="22">
@@ -1285,7 +1285,7 @@
         <v>-0.1104325569202529</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.00187400962308</v>
+        <v>1.001874009623081</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.2192513549293739</v>
@@ -1294,7 +1294,7 @@
         <v>-0.3643417393013166</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.8289593279746612</v>
+        <v>0.828959327974662</v>
       </c>
     </row>
     <row r="23">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.310684528247624</v>
+        <v>-2.407591503543347</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.172953666132367</v>
+        <v>-2.170279948597528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.130985479665202</v>
+        <v>-1.120413265882519</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.129552851049486</v>
+        <v>-2.299092902690506</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.675139870425471</v>
+        <v>-2.40121437546884</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.102883935505397</v>
+        <v>-1.343926404970775</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.665961841248671</v>
+        <v>-1.686796811077063</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.835591711365274</v>
+        <v>-1.735779403273462</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.4938186832561315</v>
+        <v>-0.5712604181281107</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5323411129281441</v>
+        <v>0.3824982492096096</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7413692194029592</v>
+        <v>0.730375320405966</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.217163761566251</v>
+        <v>2.146069889386328</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.044735062915494</v>
+        <v>3.039026796224453</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.326385570574522</v>
+        <v>2.559975210258951</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.001245723963251</v>
+        <v>3.139185923698346</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.231173494662056</v>
+        <v>1.172214698021951</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.07023875900775</v>
+        <v>1.03712471240813</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.169476187584976</v>
+        <v>2.163454632910355</v>
       </c>
     </row>
     <row r="25">
@@ -1390,7 +1390,7 @@
         <v>-0.02679992915199366</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2431362020940236</v>
+        <v>0.2431362020940239</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.07576534379421528</v>
@@ -1399,7 +1399,7 @@
         <v>-0.1259033365866253</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2864583824152572</v>
+        <v>0.2864583824152574</v>
       </c>
     </row>
     <row r="26">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8490026939022756</v>
+        <v>-0.8744163848896578</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8264062958603358</v>
+        <v>-0.8218158856687896</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4555012857821865</v>
+        <v>-0.4900594865322704</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3981832072354217</v>
+        <v>-0.4134828532079191</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4761105233924499</v>
+        <v>-0.4508287699758997</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2118826312336721</v>
+        <v>-0.2486820914667633</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4439497649244729</v>
+        <v>-0.4562256513203909</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4989232767442069</v>
+        <v>-0.4749838801627217</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1635476782649149</v>
+        <v>-0.1516368054017186</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.211110294999253</v>
+        <v>0.6702453406391835</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.076888345855024</v>
+        <v>1.138866191636623</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.543198524927835</v>
+        <v>2.511638031754415</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.079017165653581</v>
+        <v>1.143111606624776</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8792735901224451</v>
+        <v>0.8819782088479901</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.062809092038083</v>
+        <v>1.146687527561399</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5845789387177882</v>
+        <v>0.538969502616537</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5683384467464692</v>
+        <v>0.5229776765955081</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.051329427179307</v>
+        <v>1.038962323265707</v>
       </c>
     </row>
     <row r="28">
@@ -1490,7 +1490,7 @@
         <v>-1.653345697237604</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2686225060721075</v>
+        <v>0.2686225060721067</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.7540977806681698</v>
@@ -1499,7 +1499,7 @@
         <v>-2.85643574307888</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.2039259635840854</v>
+        <v>0.203925963584084</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.637339653786342</v>
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.151496837904329</v>
+        <v>-5.228918243381766</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.045713213032977</v>
+        <v>-4.185984399617724</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.167424252539167</v>
+        <v>-2.121975501185384</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.767315498915159</v>
+        <v>-3.852571368908349</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.820912031408488</v>
+        <v>-6.026866324748407</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.049552594728759</v>
+        <v>-2.547718192550054</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.50416169549531</v>
+        <v>-3.646122585046886</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.319090110474941</v>
+        <v>-4.144342963469077</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.846447900177228</v>
+        <v>-1.855423855544369</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.6370318578917292</v>
+        <v>-0.7838031416961402</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4428410492544426</v>
+        <v>0.5597433571503616</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.605618442818077</v>
+        <v>2.393618955626553</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.726055393263699</v>
+        <v>2.658719965964441</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2299801045495289</v>
+        <v>0.05011889906384276</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.400856150416653</v>
+        <v>2.628276453041116</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6555420981487643</v>
+        <v>0.4189005051038096</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.4009708995555121</v>
+        <v>-0.5136579748557717</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.940824120448924</v>
+        <v>2.169567547051128</v>
       </c>
     </row>
     <row r="31">
@@ -1595,7 +1595,7 @@
         <v>-0.5089297468178746</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.08268687197920828</v>
+        <v>0.08268687197920807</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1111164892204004</v>
@@ -1604,7 +1604,7 @@
         <v>-0.4208964932549737</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03004853974543364</v>
+        <v>0.03004853974543343</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3238241784399163</v>
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.963056838344012</v>
+        <v>-0.9734122335003061</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8729265990182243</v>
+        <v>-0.852730684456231</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4450109832829566</v>
+        <v>-0.4416978806412161</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4489371563812589</v>
+        <v>-0.4519656793468717</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.669307360395464</v>
+        <v>-0.6871033021966851</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3210537711800472</v>
+        <v>-0.3059052044606865</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5815534514516548</v>
+        <v>-0.5856490503104499</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6685139720403541</v>
+        <v>-0.667122504853816</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2833600482200819</v>
+        <v>-0.2828467737809099</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.03741326756501962</v>
+        <v>-0.2176652893065187</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4468650261948695</v>
+        <v>0.3719735841697759</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.440347825693203</v>
+        <v>1.317745823040633</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5763923675538916</v>
+        <v>0.532437909909411</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.08117374439267354</v>
+        <v>0.03024375445760811</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7588642501603435</v>
+        <v>0.5363845114614406</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1792470118596388</v>
+        <v>0.1238011984525941</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.07018990771454096</v>
+        <v>-0.1081683408879858</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5227316936557187</v>
+        <v>0.5799345418190112</v>
       </c>
     </row>
     <row r="34">
@@ -1733,31 +1733,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.082465437639829</v>
+        <v>-4.481358974050176</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.144025219416781</v>
+        <v>-5.199646505656947</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.223822803141209</v>
+        <v>-4.14522199732125</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.668267378343788</v>
+        <v>-7.301473338068147</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.692326764510094</v>
+        <v>-8.824323521778174</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.925621298207754</v>
+        <v>-8.102228790251557</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.571525637817171</v>
+        <v>-4.676136032272947</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.190242341121985</v>
+        <v>-6.296934408876479</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.171558682958577</v>
+        <v>-5.075119789710051</v>
       </c>
     </row>
     <row r="36">
@@ -1768,31 +1768,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.461166531202725</v>
+        <v>1.916854662518201</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.5883213268556575</v>
+        <v>0.5423407771076115</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.471811448297381</v>
+        <v>1.711687348652171</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.209413548090823</v>
+        <v>1.837983522642275</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.174511749906059</v>
+        <v>-0.8754356751954325</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.8718212588542256</v>
+        <v>-0.9178402919653947</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.9377457427901047</v>
+        <v>0.8630248847601685</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-1.207014855346791</v>
+        <v>-1.41863645467012</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.6619990947801121</v>
+        <v>-0.4487697816466568</v>
       </c>
     </row>
     <row r="37">
@@ -1827,7 +1827,7 @@
         <v>-0.4766351245995921</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.3507284532597295</v>
+        <v>-0.3507284532597294</v>
       </c>
     </row>
     <row r="38">
@@ -1838,31 +1838,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6991239268417683</v>
+        <v>-0.7397399791427706</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.843911006225065</v>
+        <v>-0.8629044407438784</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6388304716216445</v>
+        <v>-0.6414110508186383</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5682864318002654</v>
+        <v>-0.5588848942957733</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6764272800273922</v>
+        <v>-0.6742288651920711</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5866911915599929</v>
+        <v>-0.5829207883125046</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5181329406289594</v>
+        <v>-0.5051698301788508</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6818334636226824</v>
+        <v>-0.6737243735324556</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5468862945590603</v>
+        <v>-0.5385157308590401</v>
       </c>
     </row>
     <row r="39">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.069864283110111</v>
+        <v>0.7886873483611603</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3784467839929941</v>
+        <v>0.2576405603542517</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7150217351394089</v>
+        <v>0.7510514260287664</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1392791815939569</v>
+        <v>0.1944427752390587</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.119644435092394</v>
+        <v>-0.0750853648527741</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.09973818355401032</v>
+        <v>-0.09524408859413844</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1346618774748438</v>
+        <v>0.1406079309212333</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1898378672480383</v>
+        <v>-0.1929751104275077</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.09127882036537345</v>
+        <v>-0.06534487779027881</v>
       </c>
     </row>
     <row r="40">
@@ -1918,7 +1918,7 @@
         <v>-4.04347755029683</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-4.406294795794193</v>
+        <v>-4.406294795794194</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>5.05982369096214</v>
@@ -1936,7 +1936,7 @@
         <v>-1.998744234128611</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.3038511718986905</v>
+        <v>0.3038511718986933</v>
       </c>
     </row>
     <row r="41">
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.823933105937504</v>
+        <v>-9.796478982390676</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-8.897075276555938</v>
+        <v>-9.534459478417604</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-9.096106931267654</v>
+        <v>-9.395673281916368</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.7126054326590645</v>
+        <v>0.4194184412980537</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.780360082635331</v>
+        <v>-4.997287389965449</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.8429537180336412</v>
+        <v>-0.09762335717241576</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.204314208528953</v>
+        <v>-2.190133407695683</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.987767526274663</v>
+        <v>-4.970374703161884</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.600334127089179</v>
+        <v>-2.399169261582104</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.3152175403972482</v>
+        <v>0.1327785358719845</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.1328803788684075</v>
+        <v>-0.3178187549887382</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.7554916980029375</v>
+        <v>-0.7188723978298223</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9.550013851164582</v>
+        <v>9.697141422793459</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.444258470028933</v>
+        <v>3.364696250382203</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.603034847253654</v>
+        <v>6.871257560568504</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.591549989775165</v>
+        <v>4.662191002952961</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.8026918853435178</v>
+        <v>1.046101260321499</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.117148519285482</v>
+        <v>2.918320488633536</v>
       </c>
     </row>
     <row r="43">
@@ -2023,7 +2023,7 @@
         <v>-0.4854599758483341</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.5290198198305467</v>
+        <v>-0.5290198198305468</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.7014034867581437</v>
@@ -2041,7 +2041,7 @@
         <v>-0.2614677347589484</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.03974859627542036</v>
+        <v>0.03974859627542073</v>
       </c>
     </row>
     <row r="44">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8785043766485182</v>
+        <v>-0.8640594029691284</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7586091976161751</v>
+        <v>-0.7747693847143473</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.756494713526758</v>
+        <v>-0.7622901500112357</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.0662606269408888</v>
+        <v>0.02208907989793431</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5092043132995236</v>
+        <v>-0.5306006286948062</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.08750321922602501</v>
+        <v>-0.01125419950729452</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2392759075314863</v>
+        <v>-0.2309814356300732</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5305206806777826</v>
+        <v>-0.5437889048476361</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2808138960553318</v>
+        <v>-0.2590250583944233</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2052364850817265</v>
+        <v>0.1252273676977771</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.05191086344341585</v>
+        <v>0.0308598540883265</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.116928085687445</v>
+        <v>-0.07912721560880193</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.949869470004607</v>
+        <v>1.945549279952207</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7242532036466287</v>
+        <v>0.6383806252304455</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.349356967070001</v>
+        <v>1.474071145472749</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7885056878938529</v>
+        <v>0.782450404442099</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1379591014949392</v>
+        <v>0.1765213884700756</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.5472933859653778</v>
+        <v>0.5171606291251616</v>
       </c>
     </row>
     <row r="46">
@@ -2132,7 +2132,7 @@
         <v>-0.9601946716299704</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.05545402575875789</v>
+        <v>-0.05545402575875824</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.6934189244949395</v>
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.596642085404755</v>
+        <v>-1.587630736586568</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.57370432025643</v>
+        <v>-1.641553052448052</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.7836157292027517</v>
+        <v>-0.7984843109528376</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.3396462238890913</v>
+        <v>-0.4229436969414897</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.085694515694662</v>
+        <v>-2.149825294327105</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.9490136649234432</v>
+        <v>-0.8631537719221427</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.7636503376358741</v>
+        <v>-0.8006937287196645</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.641993522204265</v>
+        <v>-1.661553559218296</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.5743500045751919</v>
+        <v>-0.5877032656718389</v>
       </c>
     </row>
     <row r="48">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.2469060596698779</v>
+        <v>-0.2302014625329176</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.2857831067373704</v>
+        <v>-0.3853561461672795</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.6818873241261516</v>
+        <v>0.6465489918402922</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.874208215814856</v>
+        <v>1.896258492078192</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.103247402285508</v>
+        <v>-0.1547398466311844</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.034959236015292</v>
+        <v>0.9838472285722174</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.5896776872375022</v>
+        <v>0.5506529124734822</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.3669212344535682</v>
+        <v>-0.4394482724118588</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.6690626322589611</v>
+        <v>0.6859590216837624</v>
       </c>
     </row>
     <row r="49">
@@ -2237,7 +2237,7 @@
         <v>-0.4292110438219654</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.02478818200442899</v>
+        <v>-0.02478818200442914</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.1304052364895432</v>
@@ -2266,31 +2266,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6124421739050109</v>
+        <v>-0.6148130765842882</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6038146140977488</v>
+        <v>-0.6242240141536258</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2948761741586014</v>
+        <v>-0.2953366617793435</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.05833370006228147</v>
+        <v>-0.06883050534809793</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3637264977768176</v>
+        <v>-0.3701347699345516</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1588346666663613</v>
+        <v>-0.1501695700873353</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1829022440104959</v>
+        <v>-0.1913306360962364</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3999045495286468</v>
+        <v>-0.3994901764190107</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1410211468537873</v>
+        <v>-0.1438544958147079</v>
       </c>
     </row>
     <row r="51">
@@ -2301,31 +2301,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.14181946804576</v>
+        <v>-0.1197920947583093</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1497630930993492</v>
+        <v>-0.2002426563937686</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3701235927606707</v>
+        <v>0.3474692536449964</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3819594010299929</v>
+        <v>0.3940254708318811</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.02135199675573115</v>
+        <v>-0.03128346930199972</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2258966071013844</v>
+        <v>0.2110093645103346</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1728021421058856</v>
+        <v>0.1616946152202693</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1043789711885148</v>
+        <v>-0.1234224600185681</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2065935160007157</v>
+        <v>0.1984043378460677</v>
       </c>
     </row>
     <row r="52">
